--- a/template/Student_Promotion.xlsx
+++ b/template/Student_Promotion.xlsx
@@ -126,7 +126,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -346,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -455,6 +455,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,8 +503,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -807,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O300"/>
+  <dimension ref="A1:N300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,7 +844,7 @@
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" customWidth="1"/>
     <col min="13" max="13" width="12.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" style="61" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -831,6 +852,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10"/>
+      <c r="N1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C2" s="36" t="s">
@@ -900,6 +922,7 @@
       <c r="K5" s="38"/>
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
+      <c r="N5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" s="36" t="s">
@@ -915,6 +938,7 @@
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
+      <c r="N6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" s="36" t="s">
@@ -930,20 +954,24 @@
       <c r="K7" s="36"/>
       <c r="L7" s="36"/>
       <c r="M7" s="36"/>
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
       <c r="J9" s="36" t="s">
         <v>28</v>
       </c>
@@ -951,41 +979,41 @@
       <c r="L9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
       <c r="J10" s="39"/>
       <c r="K10" s="39"/>
       <c r="L10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="44" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="4"/>
       <c r="J12" s="33" t="s">
         <v>13</v>
@@ -995,21 +1023,21 @@
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="15"/>
-      <c r="N12" s="33" t="s">
+      <c r="N12" s="56" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
       <c r="I13" s="5" t="s">
         <v>10</v>
       </c>
@@ -1023,7 +1051,7 @@
       <c r="M13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="34"/>
+      <c r="N13" s="57"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
@@ -1033,9 +1061,9 @@
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48"/>
       <c r="I14" s="17" t="s">
         <v>11</v>
       </c>
@@ -1049,7 +1077,7 @@
       <c r="M14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="34"/>
+      <c r="N14" s="57"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
@@ -1059,9 +1087,9 @@
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="18" t="s">
         <v>12</v>
       </c>
@@ -1071,7 +1099,7 @@
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="16"/>
-      <c r="N15" s="35"/>
+      <c r="N15" s="58"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
@@ -1087,7 +1115,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="11"/>
-      <c r="N16" s="12"/>
+      <c r="N16" s="59"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
@@ -1103,7 +1131,7 @@
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="12"/>
+      <c r="N17" s="59"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
@@ -1121,7 +1149,7 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="12"/>
+      <c r="N18" s="59"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
@@ -1137,7 +1165,7 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="11"/>
-      <c r="N19" s="12"/>
+      <c r="N19" s="59"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
@@ -1153,7 +1181,7 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="12"/>
+      <c r="N20" s="59"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
@@ -1169,7 +1197,7 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="11"/>
-      <c r="N21" s="12"/>
+      <c r="N21" s="59"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
@@ -1185,7 +1213,7 @@
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="11"/>
-      <c r="N22" s="12"/>
+      <c r="N22" s="59"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
@@ -1201,7 +1229,7 @@
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="11"/>
-      <c r="N23" s="12"/>
+      <c r="N23" s="59"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
@@ -1217,7 +1245,7 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="11"/>
-      <c r="N24" s="12"/>
+      <c r="N24" s="59"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
@@ -1233,7 +1261,7 @@
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="12"/>
+      <c r="N25" s="59"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
@@ -1249,7 +1277,7 @@
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="11"/>
-      <c r="N26" s="12"/>
+      <c r="N26" s="59"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
@@ -1265,7 +1293,7 @@
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="11"/>
-      <c r="N27" s="12"/>
+      <c r="N27" s="59"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
@@ -1281,7 +1309,7 @@
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="11"/>
-      <c r="N28" s="12"/>
+      <c r="N28" s="59"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
@@ -1297,7 +1325,7 @@
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="11"/>
-      <c r="N29" s="12"/>
+      <c r="N29" s="59"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
@@ -1313,7 +1341,7 @@
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="11"/>
-      <c r="N30" s="12"/>
+      <c r="N30" s="59"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
@@ -1329,7 +1357,7 @@
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="11"/>
-      <c r="N31" s="12"/>
+      <c r="N31" s="59"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
@@ -1345,9 +1373,9 @@
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="11"/>
-      <c r="N32" s="12"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N32" s="59"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -1361,9 +1389,9 @@
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="11"/>
-      <c r="N33" s="12"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N33" s="59"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
@@ -1377,9 +1405,9 @@
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="13"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N34" s="60"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -1393,10 +1421,9 @@
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="11"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N35" s="59"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -1410,10 +1437,9 @@
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
       <c r="M36" s="11"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N36" s="59"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -1427,10 +1453,9 @@
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
       <c r="M37" s="11"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N37" s="59"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -1444,10 +1469,9 @@
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N38" s="59"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -1461,10 +1485,9 @@
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="11"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N39" s="59"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -1478,10 +1501,9 @@
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="11"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N40" s="59"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -1495,10 +1517,9 @@
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="11"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N41" s="59"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -1512,10 +1533,9 @@
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="11"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N42" s="59"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -1529,10 +1549,9 @@
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
       <c r="M43" s="11"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N43" s="59"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -1546,10 +1565,9 @@
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N44" s="59"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -1563,10 +1581,9 @@
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
       <c r="M45" s="11"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N45" s="59"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -1580,10 +1597,9 @@
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
       <c r="M46" s="11"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N46" s="59"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
@@ -1597,10 +1613,9 @@
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="11"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N47" s="59"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
@@ -1614,10 +1629,9 @@
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="11"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N48" s="59"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -1631,10 +1645,9 @@
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
       <c r="M49" s="11"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N49" s="59"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -1648,10 +1661,9 @@
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N50" s="59"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -1665,10 +1677,9 @@
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
       <c r="M51" s="11"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N51" s="59"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
@@ -1682,10 +1693,9 @@
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
       <c r="M52" s="11"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N52" s="59"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
@@ -1699,10 +1709,9 @@
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
       <c r="M53" s="11"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N53" s="59"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
@@ -1716,10 +1725,9 @@
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
       <c r="M54" s="11"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N54" s="59"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -1733,10 +1741,9 @@
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
       <c r="M55" s="11"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N55" s="59"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
@@ -1750,10 +1757,9 @@
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="11"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N56" s="59"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
@@ -1767,10 +1773,9 @@
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="11"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N57" s="59"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
@@ -1784,10 +1789,9 @@
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
       <c r="M58" s="11"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N58" s="59"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
@@ -1801,10 +1805,9 @@
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
       <c r="M59" s="11"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N59" s="59"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
@@ -1818,10 +1821,9 @@
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
       <c r="M60" s="11"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N60" s="59"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
@@ -1835,10 +1837,9 @@
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
       <c r="M61" s="11"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N61" s="59"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
@@ -1852,10 +1853,9 @@
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
       <c r="M62" s="11"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N62" s="59"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
@@ -1869,10 +1869,9 @@
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
       <c r="M63" s="11"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N63" s="59"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
@@ -1886,10 +1885,9 @@
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
       <c r="M64" s="11"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N64" s="59"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="25"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
@@ -1903,10 +1901,9 @@
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
       <c r="M65" s="11"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N65" s="59"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="25"/>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
@@ -1920,10 +1917,9 @@
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
       <c r="M66" s="11"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N66" s="59"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
@@ -1937,10 +1933,9 @@
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
       <c r="M67" s="11"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N67" s="59"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
@@ -1954,10 +1949,9 @@
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
       <c r="M68" s="11"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N68" s="59"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -1971,10 +1965,9 @@
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
       <c r="M69" s="11"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N69" s="59"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
@@ -1988,10 +1981,9 @@
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
       <c r="M70" s="11"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N70" s="59"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
@@ -2005,10 +1997,9 @@
       <c r="K71" s="12"/>
       <c r="L71" s="12"/>
       <c r="M71" s="11"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N71" s="59"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
@@ -2022,10 +2013,9 @@
       <c r="K72" s="12"/>
       <c r="L72" s="12"/>
       <c r="M72" s="11"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N72" s="59"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
@@ -2039,10 +2029,9 @@
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
       <c r="M73" s="11"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N73" s="59"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
@@ -2056,10 +2045,9 @@
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
       <c r="M74" s="11"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N74" s="59"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
@@ -2073,10 +2061,9 @@
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
       <c r="M75" s="11"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N75" s="59"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
@@ -2090,10 +2077,9 @@
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
       <c r="M76" s="11"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N76" s="59"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
@@ -2107,10 +2093,9 @@
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
       <c r="M77" s="11"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N77" s="59"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
@@ -2124,10 +2109,9 @@
       <c r="K78" s="12"/>
       <c r="L78" s="12"/>
       <c r="M78" s="11"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N78" s="59"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
@@ -2141,10 +2125,9 @@
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
       <c r="M79" s="11"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N79" s="59"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
@@ -2158,10 +2141,9 @@
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
       <c r="M80" s="11"/>
-      <c r="N80" s="12"/>
-      <c r="O80" s="12"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N80" s="59"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
@@ -2175,10 +2157,9 @@
       <c r="K81" s="12"/>
       <c r="L81" s="12"/>
       <c r="M81" s="11"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N81" s="59"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
@@ -2192,10 +2173,9 @@
       <c r="K82" s="12"/>
       <c r="L82" s="12"/>
       <c r="M82" s="11"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="12"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N82" s="59"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
@@ -2209,10 +2189,9 @@
       <c r="K83" s="12"/>
       <c r="L83" s="12"/>
       <c r="M83" s="11"/>
-      <c r="N83" s="12"/>
-      <c r="O83" s="12"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N83" s="59"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
@@ -2226,10 +2205,9 @@
       <c r="K84" s="12"/>
       <c r="L84" s="12"/>
       <c r="M84" s="11"/>
-      <c r="N84" s="12"/>
-      <c r="O84" s="12"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N84" s="59"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
@@ -2243,10 +2221,9 @@
       <c r="K85" s="12"/>
       <c r="L85" s="12"/>
       <c r="M85" s="11"/>
-      <c r="N85" s="12"/>
-      <c r="O85" s="12"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N85" s="59"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
@@ -2260,10 +2237,9 @@
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
       <c r="M86" s="11"/>
-      <c r="N86" s="12"/>
-      <c r="O86" s="12"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N86" s="59"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
@@ -2277,10 +2253,9 @@
       <c r="K87" s="12"/>
       <c r="L87" s="12"/>
       <c r="M87" s="11"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="12"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N87" s="59"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
@@ -2294,10 +2269,9 @@
       <c r="K88" s="12"/>
       <c r="L88" s="12"/>
       <c r="M88" s="11"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="12"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N88" s="59"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
@@ -2311,10 +2285,9 @@
       <c r="K89" s="12"/>
       <c r="L89" s="12"/>
       <c r="M89" s="11"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="12"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N89" s="59"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
@@ -2328,10 +2301,9 @@
       <c r="K90" s="12"/>
       <c r="L90" s="12"/>
       <c r="M90" s="11"/>
-      <c r="N90" s="12"/>
-      <c r="O90" s="12"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N90" s="59"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
@@ -2345,10 +2317,9 @@
       <c r="K91" s="12"/>
       <c r="L91" s="12"/>
       <c r="M91" s="11"/>
-      <c r="N91" s="12"/>
-      <c r="O91" s="12"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N91" s="59"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
@@ -2362,10 +2333,9 @@
       <c r="K92" s="12"/>
       <c r="L92" s="12"/>
       <c r="M92" s="11"/>
-      <c r="N92" s="12"/>
-      <c r="O92" s="12"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N92" s="59"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
@@ -2379,10 +2349,9 @@
       <c r="K93" s="12"/>
       <c r="L93" s="12"/>
       <c r="M93" s="11"/>
-      <c r="N93" s="12"/>
-      <c r="O93" s="12"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N93" s="59"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
@@ -2396,10 +2365,9 @@
       <c r="K94" s="12"/>
       <c r="L94" s="12"/>
       <c r="M94" s="11"/>
-      <c r="N94" s="12"/>
-      <c r="O94" s="12"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N94" s="59"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
@@ -2413,10 +2381,9 @@
       <c r="K95" s="12"/>
       <c r="L95" s="12"/>
       <c r="M95" s="11"/>
-      <c r="N95" s="12"/>
-      <c r="O95" s="12"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N95" s="59"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
@@ -2430,10 +2397,9 @@
       <c r="K96" s="12"/>
       <c r="L96" s="12"/>
       <c r="M96" s="11"/>
-      <c r="N96" s="12"/>
-      <c r="O96" s="12"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N96" s="59"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
@@ -2447,10 +2413,9 @@
       <c r="K97" s="12"/>
       <c r="L97" s="12"/>
       <c r="M97" s="11"/>
-      <c r="N97" s="12"/>
-      <c r="O97" s="12"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N97" s="59"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
@@ -2464,10 +2429,9 @@
       <c r="K98" s="12"/>
       <c r="L98" s="12"/>
       <c r="M98" s="11"/>
-      <c r="N98" s="12"/>
-      <c r="O98" s="12"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N98" s="59"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
@@ -2481,10 +2445,9 @@
       <c r="K99" s="12"/>
       <c r="L99" s="12"/>
       <c r="M99" s="11"/>
-      <c r="N99" s="12"/>
-      <c r="O99" s="12"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N99" s="59"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
@@ -2498,10 +2461,9 @@
       <c r="K100" s="12"/>
       <c r="L100" s="12"/>
       <c r="M100" s="11"/>
-      <c r="N100" s="12"/>
-      <c r="O100" s="12"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N100" s="59"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
       <c r="C101" s="25"/>
@@ -2515,10 +2477,9 @@
       <c r="K101" s="12"/>
       <c r="L101" s="12"/>
       <c r="M101" s="11"/>
-      <c r="N101" s="12"/>
-      <c r="O101" s="12"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N101" s="59"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="25"/>
       <c r="B102" s="25"/>
       <c r="C102" s="25"/>
@@ -2532,10 +2493,9 @@
       <c r="K102" s="12"/>
       <c r="L102" s="12"/>
       <c r="M102" s="11"/>
-      <c r="N102" s="12"/>
-      <c r="O102" s="12"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N102" s="59"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
       <c r="C103" s="25"/>
@@ -2549,10 +2509,9 @@
       <c r="K103" s="12"/>
       <c r="L103" s="12"/>
       <c r="M103" s="11"/>
-      <c r="N103" s="12"/>
-      <c r="O103" s="12"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N103" s="59"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="25"/>
       <c r="B104" s="25"/>
       <c r="C104" s="25"/>
@@ -2566,10 +2525,9 @@
       <c r="K104" s="12"/>
       <c r="L104" s="12"/>
       <c r="M104" s="11"/>
-      <c r="N104" s="12"/>
-      <c r="O104" s="12"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N104" s="59"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="25"/>
       <c r="B105" s="25"/>
       <c r="C105" s="25"/>
@@ -2583,10 +2541,9 @@
       <c r="K105" s="12"/>
       <c r="L105" s="12"/>
       <c r="M105" s="11"/>
-      <c r="N105" s="12"/>
-      <c r="O105" s="12"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N105" s="59"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="25"/>
       <c r="B106" s="25"/>
       <c r="C106" s="25"/>
@@ -2600,10 +2557,9 @@
       <c r="K106" s="12"/>
       <c r="L106" s="12"/>
       <c r="M106" s="11"/>
-      <c r="N106" s="12"/>
-      <c r="O106" s="12"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N106" s="59"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="25"/>
       <c r="B107" s="25"/>
       <c r="C107" s="25"/>
@@ -2617,10 +2573,9 @@
       <c r="K107" s="12"/>
       <c r="L107" s="12"/>
       <c r="M107" s="11"/>
-      <c r="N107" s="12"/>
-      <c r="O107" s="12"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N107" s="59"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="25"/>
       <c r="B108" s="25"/>
       <c r="C108" s="25"/>
@@ -2634,10 +2589,9 @@
       <c r="K108" s="12"/>
       <c r="L108" s="12"/>
       <c r="M108" s="11"/>
-      <c r="N108" s="12"/>
-      <c r="O108" s="12"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N108" s="59"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="25"/>
       <c r="B109" s="25"/>
       <c r="C109" s="25"/>
@@ -2651,10 +2605,9 @@
       <c r="K109" s="12"/>
       <c r="L109" s="12"/>
       <c r="M109" s="11"/>
-      <c r="N109" s="12"/>
-      <c r="O109" s="12"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N109" s="59"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="25"/>
       <c r="B110" s="25"/>
       <c r="C110" s="25"/>
@@ -2668,10 +2621,9 @@
       <c r="K110" s="12"/>
       <c r="L110" s="12"/>
       <c r="M110" s="11"/>
-      <c r="N110" s="12"/>
-      <c r="O110" s="12"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N110" s="59"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="25"/>
       <c r="B111" s="25"/>
       <c r="C111" s="25"/>
@@ -2685,10 +2637,9 @@
       <c r="K111" s="12"/>
       <c r="L111" s="12"/>
       <c r="M111" s="11"/>
-      <c r="N111" s="12"/>
-      <c r="O111" s="12"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N111" s="59"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="25"/>
       <c r="B112" s="25"/>
       <c r="C112" s="25"/>
@@ -2702,10 +2653,9 @@
       <c r="K112" s="12"/>
       <c r="L112" s="12"/>
       <c r="M112" s="11"/>
-      <c r="N112" s="12"/>
-      <c r="O112" s="12"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N112" s="59"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="25"/>
       <c r="B113" s="25"/>
       <c r="C113" s="25"/>
@@ -2719,10 +2669,9 @@
       <c r="K113" s="12"/>
       <c r="L113" s="12"/>
       <c r="M113" s="11"/>
-      <c r="N113" s="12"/>
-      <c r="O113" s="12"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N113" s="59"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="25"/>
       <c r="B114" s="25"/>
       <c r="C114" s="25"/>
@@ -2736,10 +2685,9 @@
       <c r="K114" s="12"/>
       <c r="L114" s="12"/>
       <c r="M114" s="11"/>
-      <c r="N114" s="12"/>
-      <c r="O114" s="12"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N114" s="59"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="25"/>
       <c r="B115" s="25"/>
       <c r="C115" s="25"/>
@@ -2753,10 +2701,9 @@
       <c r="K115" s="12"/>
       <c r="L115" s="12"/>
       <c r="M115" s="11"/>
-      <c r="N115" s="12"/>
-      <c r="O115" s="12"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N115" s="59"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="25"/>
       <c r="B116" s="25"/>
       <c r="C116" s="25"/>
@@ -2770,10 +2717,9 @@
       <c r="K116" s="12"/>
       <c r="L116" s="12"/>
       <c r="M116" s="11"/>
-      <c r="N116" s="12"/>
-      <c r="O116" s="12"/>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N116" s="59"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="25"/>
       <c r="B117" s="25"/>
       <c r="C117" s="25"/>
@@ -2787,10 +2733,9 @@
       <c r="K117" s="12"/>
       <c r="L117" s="12"/>
       <c r="M117" s="11"/>
-      <c r="N117" s="12"/>
-      <c r="O117" s="12"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N117" s="59"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="25"/>
       <c r="B118" s="25"/>
       <c r="C118" s="25"/>
@@ -2804,10 +2749,9 @@
       <c r="K118" s="12"/>
       <c r="L118" s="12"/>
       <c r="M118" s="11"/>
-      <c r="N118" s="12"/>
-      <c r="O118" s="12"/>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N118" s="59"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="25"/>
       <c r="B119" s="25"/>
       <c r="C119" s="25"/>
@@ -2821,10 +2765,9 @@
       <c r="K119" s="12"/>
       <c r="L119" s="12"/>
       <c r="M119" s="11"/>
-      <c r="N119" s="12"/>
-      <c r="O119" s="12"/>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N119" s="59"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="25"/>
       <c r="B120" s="25"/>
       <c r="C120" s="25"/>
@@ -2838,10 +2781,9 @@
       <c r="K120" s="12"/>
       <c r="L120" s="12"/>
       <c r="M120" s="11"/>
-      <c r="N120" s="12"/>
-      <c r="O120" s="12"/>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N120" s="59"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="25"/>
       <c r="B121" s="25"/>
       <c r="C121" s="25"/>
@@ -2855,10 +2797,9 @@
       <c r="K121" s="12"/>
       <c r="L121" s="12"/>
       <c r="M121" s="11"/>
-      <c r="N121" s="12"/>
-      <c r="O121" s="12"/>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N121" s="59"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="25"/>
       <c r="B122" s="25"/>
       <c r="C122" s="25"/>
@@ -2872,10 +2813,9 @@
       <c r="K122" s="12"/>
       <c r="L122" s="12"/>
       <c r="M122" s="11"/>
-      <c r="N122" s="12"/>
-      <c r="O122" s="12"/>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N122" s="59"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="25"/>
       <c r="B123" s="25"/>
       <c r="C123" s="25"/>
@@ -2889,10 +2829,9 @@
       <c r="K123" s="12"/>
       <c r="L123" s="12"/>
       <c r="M123" s="11"/>
-      <c r="N123" s="12"/>
-      <c r="O123" s="12"/>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N123" s="59"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="25"/>
       <c r="B124" s="25"/>
       <c r="C124" s="25"/>
@@ -2906,10 +2845,9 @@
       <c r="K124" s="12"/>
       <c r="L124" s="12"/>
       <c r="M124" s="11"/>
-      <c r="N124" s="12"/>
-      <c r="O124" s="12"/>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N124" s="59"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="25"/>
       <c r="B125" s="25"/>
       <c r="C125" s="25"/>
@@ -2923,10 +2861,9 @@
       <c r="K125" s="12"/>
       <c r="L125" s="12"/>
       <c r="M125" s="11"/>
-      <c r="N125" s="12"/>
-      <c r="O125" s="12"/>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N125" s="59"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="25"/>
       <c r="B126" s="25"/>
       <c r="C126" s="25"/>
@@ -2940,10 +2877,9 @@
       <c r="K126" s="12"/>
       <c r="L126" s="12"/>
       <c r="M126" s="11"/>
-      <c r="N126" s="12"/>
-      <c r="O126" s="12"/>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N126" s="59"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="25"/>
       <c r="B127" s="25"/>
       <c r="C127" s="25"/>
@@ -2957,10 +2893,9 @@
       <c r="K127" s="12"/>
       <c r="L127" s="12"/>
       <c r="M127" s="11"/>
-      <c r="N127" s="12"/>
-      <c r="O127" s="12"/>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N127" s="59"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="25"/>
       <c r="B128" s="25"/>
       <c r="C128" s="25"/>
@@ -2974,10 +2909,9 @@
       <c r="K128" s="12"/>
       <c r="L128" s="12"/>
       <c r="M128" s="11"/>
-      <c r="N128" s="12"/>
-      <c r="O128" s="12"/>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N128" s="59"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="25"/>
       <c r="B129" s="25"/>
       <c r="C129" s="25"/>
@@ -2991,10 +2925,9 @@
       <c r="K129" s="12"/>
       <c r="L129" s="12"/>
       <c r="M129" s="11"/>
-      <c r="N129" s="12"/>
-      <c r="O129" s="12"/>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N129" s="59"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="25"/>
       <c r="B130" s="25"/>
       <c r="C130" s="25"/>
@@ -3008,10 +2941,9 @@
       <c r="K130" s="12"/>
       <c r="L130" s="12"/>
       <c r="M130" s="11"/>
-      <c r="N130" s="12"/>
-      <c r="O130" s="12"/>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N130" s="59"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="25"/>
       <c r="B131" s="25"/>
       <c r="C131" s="25"/>
@@ -3025,10 +2957,9 @@
       <c r="K131" s="12"/>
       <c r="L131" s="12"/>
       <c r="M131" s="11"/>
-      <c r="N131" s="12"/>
-      <c r="O131" s="12"/>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N131" s="59"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="25"/>
       <c r="B132" s="25"/>
       <c r="C132" s="25"/>
@@ -3042,10 +2973,9 @@
       <c r="K132" s="12"/>
       <c r="L132" s="12"/>
       <c r="M132" s="11"/>
-      <c r="N132" s="12"/>
-      <c r="O132" s="12"/>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N132" s="59"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="25"/>
       <c r="B133" s="25"/>
       <c r="C133" s="25"/>
@@ -3059,10 +2989,9 @@
       <c r="K133" s="12"/>
       <c r="L133" s="12"/>
       <c r="M133" s="11"/>
-      <c r="N133" s="12"/>
-      <c r="O133" s="12"/>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N133" s="59"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="25"/>
       <c r="B134" s="25"/>
       <c r="C134" s="25"/>
@@ -3076,10 +3005,9 @@
       <c r="K134" s="12"/>
       <c r="L134" s="12"/>
       <c r="M134" s="11"/>
-      <c r="N134" s="12"/>
-      <c r="O134" s="12"/>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N134" s="59"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="25"/>
       <c r="B135" s="25"/>
       <c r="C135" s="25"/>
@@ -3093,10 +3021,9 @@
       <c r="K135" s="12"/>
       <c r="L135" s="12"/>
       <c r="M135" s="11"/>
-      <c r="N135" s="12"/>
-      <c r="O135" s="12"/>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N135" s="59"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="25"/>
       <c r="B136" s="25"/>
       <c r="C136" s="25"/>
@@ -3110,10 +3037,9 @@
       <c r="K136" s="12"/>
       <c r="L136" s="12"/>
       <c r="M136" s="11"/>
-      <c r="N136" s="12"/>
-      <c r="O136" s="12"/>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N136" s="59"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="22"/>
       <c r="B137" s="22"/>
       <c r="C137" s="22"/>
@@ -3123,7 +3049,7 @@
       <c r="G137" s="22"/>
       <c r="H137" s="22"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="22"/>
       <c r="B138" s="22"/>
       <c r="C138" s="22"/>
@@ -3133,7 +3059,7 @@
       <c r="G138" s="22"/>
       <c r="H138" s="22"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="22"/>
       <c r="B139" s="22"/>
       <c r="C139" s="22"/>
@@ -3143,7 +3069,7 @@
       <c r="G139" s="22"/>
       <c r="H139" s="22"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="22"/>
       <c r="B140" s="22"/>
       <c r="C140" s="22"/>
@@ -3153,7 +3079,7 @@
       <c r="G140" s="22"/>
       <c r="H140" s="22"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="22"/>
       <c r="B141" s="22"/>
       <c r="C141" s="22"/>
@@ -3163,7 +3089,7 @@
       <c r="G141" s="22"/>
       <c r="H141" s="22"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="22"/>
       <c r="B142" s="22"/>
       <c r="C142" s="22"/>
@@ -3173,7 +3099,7 @@
       <c r="G142" s="22"/>
       <c r="H142" s="22"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="22"/>
       <c r="B143" s="22"/>
       <c r="C143" s="22"/>
@@ -3183,7 +3109,7 @@
       <c r="G143" s="22"/>
       <c r="H143" s="22"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="22"/>
       <c r="B144" s="22"/>
       <c r="C144" s="22"/>
